--- a/ui-testsuite/src/main/resources/TestData/ATR_Imported_Anniversary_CheckRequiredFields.xlsx
+++ b/ui-testsuite/src/main/resources/TestData/ATR_Imported_Anniversary_CheckRequiredFields.xlsx
@@ -1587,8 +1587,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:FF31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" topLeftCell="BJ1" workbookViewId="0">
+      <selection activeCell="BJ14" sqref="A14:XFD14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
